--- a/biology/Histoire de la zoologie et de la botanique/Yves_Rumpler/Yves_Rumpler.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Yves_Rumpler/Yves_Rumpler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yves Rumpler, dit Eulemur Rumpele [ølemyr rumpølø], né en 1938, est un chercheur et professeur français d'embryologie et de primatologie à l'Université Louis-Pasteur de Strasbourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yves Rumpler dirige l'Institut d'embryologie de la faculté de médecine de Strasbourg depuis 1980, où il a le titre de Professeur des universités - Praticien hospitalier (PU-PH).
 Il a pendant de nombreuses années enseigné l'embryologie ainsi que les sciences humaines et sociales aux étudiants de première année de médecine, jusqu'à l'année universitaire 2006/2007, date à laquelle il a pris sa retraite.
@@ -546,7 +560,9 @@
           <t>Spécialités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsqu'Yves Rumpler est nommé assistant en 1959 puis chef de travaux en 1966 à l'Institut d'embryologie de Strasbourg ses recherches portent sur des thèmes strasbourgeois classiques (hormones thyroïdiennes, tératologie) mais à partir de 1967 l'orientation de ses travaux change se portant sur la systématique et l'évolution chromosomique des Primates lémuriens malgaches; il est dès lors mondialement reconnu pour ses travaux en primatologie. En 2001, l'unité de recherche "Espèce humaine et primates : Variabilité et évolution (EA 3428)" est constituée sous sa direction à l'Université Louis Pasteur de Strasbourg. Elle est dirigée aujourd'hui par le Pr. Bertrand Ludes et regroupe des chercheurs de l'Institut d'Embryologie, de l'Institut d'Anatomie Normale, de l'Institut de Médecine Légale et de la Faculté de Chirurgie Dentaire de Strasbourg.
 </t>
@@ -577,7 +593,9 @@
           <t>Découvertes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Yves Rumpler a participé à la description de nouvelles espèces de primates :
 Hapalemur aureus Meier, Albignac, Peyrieras, Wright et Rumpler, décrite en 1987
